--- a/総合テスト/カテゴリ別表示機能/カテゴリ別表示機能_結果.xlsx
+++ b/総合テスト/カテゴリ別表示機能/カテゴリ別表示機能_結果.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\riku.yamashita\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C73983C-AFD8-48AB-81EA-5CB60B9323F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E6A34C0-6B6D-41B6-92EA-49A4CEF9262F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="4" xr2:uid="{08E5E003-A6A3-44E3-B784-B8AA359C43C8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{08E5E003-A6A3-44E3-B784-B8AA359C43C8}"/>
   </bookViews>
   <sheets>
     <sheet name="ST-T-001" sheetId="1" r:id="rId1"/>
@@ -294,22 +294,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>33756</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>279401</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>113420</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
+        <xdr:cNvPr id="5" name="図 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B59561A0-D024-4D9F-9A68-5A0C96D13E58}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDA683D3-7682-9764-D16D-34B1D4D32A9A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -318,21 +318,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="660400" y="228600"/>
-          <a:ext cx="7772400" cy="9634956"/>
+          <a:off x="660401" y="228600"/>
+          <a:ext cx="8204200" cy="4228220"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -789,7 +783,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B4814A2-4396-4703-8C04-AA7B90FA2AE1}">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
@@ -817,7 +811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42E4F098-29C8-48C5-92C7-BB9445D0AB8F}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -853,7 +847,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{250D0678-4A91-49A3-90E9-2797BE535842}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
@@ -866,6 +860,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100FB0BDFD3C69BE04CA0B6EBFBB59E4559" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="752b2ff175b05b03e0c035222de06982">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="6d91bb22-1267-46fa-8e61-645dc3a0f267" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1718121399b3c72a7290a669e49a9f43" ns3:_="">
     <xsd:import namespace="6d91bb22-1267-46fa-8e61-645dc3a0f267"/>
@@ -1015,15 +1018,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1033,6 +1027,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10263705-2BE6-4A96-BB5F-F04A4D5AF842}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B3301BB-ABFA-49BB-A1C5-94BA8FBCFBA6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1050,24 +1052,16 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10263705-2BE6-4A96-BB5F-F04A4D5AF842}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEA7903B-E71F-4E77-93E4-68C831D6872B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="6d91bb22-1267-46fa-8e61-645dc3a0f267"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
